--- a/Salar.xlsx
+++ b/Salar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constanza\Documents\Diplomado en Análisis de datos con R para la Acuicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF2FD1-9EE1-4FEA-89FD-6C4BD438887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76992965-4A81-40B9-B4A2-386606CC81EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="171">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -552,7 +552,7 @@
     <t>Dieta</t>
   </si>
   <si>
-    <t>P.Mortalidad</t>
+    <t>Prop_Mort</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1085,12 +1085,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1100,6 +1094,13 @@
     <xf numFmtId="0" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,7 +1418,7 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1428,8 @@
     <col min="3" max="3" width="9.28515625" style="16" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="16"/>
+    <col min="6" max="6" width="12.28515625" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,8 +1468,8 @@
       <c r="E2" s="19">
         <v>6748</v>
       </c>
-      <c r="F2" s="16">
-        <v>8</v>
+      <c r="F2" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,8 +1488,8 @@
       <c r="E3" s="19">
         <v>5850</v>
       </c>
-      <c r="F3" s="16">
-        <v>7</v>
+      <c r="F3" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,8 +1508,8 @@
       <c r="E4" s="19">
         <v>8116</v>
       </c>
-      <c r="F4" s="16">
-        <v>9</v>
+      <c r="F4" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,8 +1528,8 @@
       <c r="E5" s="19">
         <v>4632</v>
       </c>
-      <c r="F5" s="16">
-        <v>5</v>
+      <c r="F5" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,8 +1548,8 @@
       <c r="E6" s="19">
         <v>12765</v>
       </c>
-      <c r="F6" s="16">
-        <v>15</v>
+      <c r="F6" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,8 +1568,8 @@
       <c r="E7" s="19">
         <v>10187</v>
       </c>
-      <c r="F7" s="16">
-        <v>12</v>
+      <c r="F7" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,8 +1588,8 @@
       <c r="E8" s="19">
         <v>7896</v>
       </c>
-      <c r="F8" s="16">
-        <v>9</v>
+      <c r="F8" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,8 +1608,8 @@
       <c r="E9" s="19">
         <v>8721</v>
       </c>
-      <c r="F9" s="16">
-        <v>10</v>
+      <c r="F9" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,8 +1628,8 @@
       <c r="E10" s="19">
         <v>7434</v>
       </c>
-      <c r="F10" s="16">
-        <v>8</v>
+      <c r="F10" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,8 +1648,8 @@
       <c r="E11" s="19">
         <v>8876</v>
       </c>
-      <c r="F11" s="16">
-        <v>10</v>
+      <c r="F11" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,8 +1668,8 @@
       <c r="E12" s="19">
         <v>7914</v>
       </c>
-      <c r="F12" s="16">
-        <v>9</v>
+      <c r="F12" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,8 +1688,8 @@
       <c r="E13" s="19">
         <v>7361</v>
       </c>
-      <c r="F13" s="16">
-        <v>8</v>
+      <c r="F13" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,8 +1708,8 @@
       <c r="E14" s="19">
         <v>7670</v>
       </c>
-      <c r="F14" s="16">
-        <v>9</v>
+      <c r="F14" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,8 +1728,8 @@
       <c r="E15" s="19">
         <v>7909</v>
       </c>
-      <c r="F15" s="16">
-        <v>9</v>
+      <c r="F15" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,8 +1748,8 @@
       <c r="E16" s="19">
         <v>11323</v>
       </c>
-      <c r="F16" s="16">
-        <v>14</v>
+      <c r="F16" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,8 +1768,8 @@
       <c r="E17" s="19">
         <v>9167</v>
       </c>
-      <c r="F17" s="16">
-        <v>11</v>
+      <c r="F17" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,8 +1788,8 @@
       <c r="E18" s="19">
         <v>23056</v>
       </c>
-      <c r="F18" s="16">
-        <v>28</v>
+      <c r="F18" s="28">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,8 +1808,8 @@
       <c r="E19" s="19">
         <v>23173</v>
       </c>
-      <c r="F19" s="16">
-        <v>28</v>
+      <c r="F19" s="28">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,8 +1828,8 @@
       <c r="E20" s="19">
         <v>12467</v>
       </c>
-      <c r="F20" s="16">
-        <v>15</v>
+      <c r="F20" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,8 +1848,8 @@
       <c r="E21" s="19">
         <v>14908</v>
       </c>
-      <c r="F21" s="16">
-        <v>18</v>
+      <c r="F21" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,8 +1868,8 @@
       <c r="E22" s="19">
         <v>11481</v>
       </c>
-      <c r="F22" s="16">
-        <v>14</v>
+      <c r="F22" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,8 +1888,8 @@
       <c r="E23" s="19">
         <v>19838</v>
       </c>
-      <c r="F23" s="16">
-        <v>25</v>
+      <c r="F23" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,8 +1908,8 @@
       <c r="E24" s="19">
         <v>10840</v>
       </c>
-      <c r="F24" s="16">
-        <v>12</v>
+      <c r="F24" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,8 +1928,8 @@
       <c r="E25" s="19">
         <v>11698</v>
       </c>
-      <c r="F25" s="16">
-        <v>13</v>
+      <c r="F25" s="28">
+        <v>0.13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,8 +1948,8 @@
       <c r="E26" s="19">
         <v>10030</v>
       </c>
-      <c r="F26" s="16">
-        <v>11</v>
+      <c r="F26" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,8 +1968,8 @@
       <c r="E27" s="19">
         <v>11564</v>
       </c>
-      <c r="F27" s="16">
-        <v>13</v>
+      <c r="F27" s="28">
+        <v>0.13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,8 +1988,8 @@
       <c r="E28" s="19">
         <v>14330</v>
       </c>
-      <c r="F28" s="16">
-        <v>16</v>
+      <c r="F28" s="28">
+        <v>0.16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,8 +2008,8 @@
       <c r="E29" s="19">
         <v>13484</v>
       </c>
-      <c r="F29" s="16">
-        <v>15</v>
+      <c r="F29" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,8 +2028,8 @@
       <c r="E30" s="19">
         <v>9362</v>
       </c>
-      <c r="F30" s="16">
-        <v>11</v>
+      <c r="F30" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,8 +2048,8 @@
       <c r="E31" s="19">
         <v>11312</v>
       </c>
-      <c r="F31" s="16">
-        <v>13</v>
+      <c r="F31" s="28">
+        <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,8 +2068,8 @@
       <c r="E32" s="19">
         <v>14120</v>
       </c>
-      <c r="F32" s="16">
-        <v>14</v>
+      <c r="F32" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2086,8 +2088,8 @@
       <c r="E33" s="19">
         <v>26354</v>
       </c>
-      <c r="F33" s="16">
-        <v>27</v>
+      <c r="F33" s="28">
+        <v>0.27</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,8 +2108,8 @@
       <c r="E34" s="19">
         <v>15321</v>
       </c>
-      <c r="F34" s="16">
-        <v>15</v>
+      <c r="F34" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,8 +2128,8 @@
       <c r="E35" s="19">
         <v>9588</v>
       </c>
-      <c r="F35" s="16">
-        <v>10</v>
+      <c r="F35" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,8 +2148,8 @@
       <c r="E36" s="19">
         <v>8242</v>
       </c>
-      <c r="F36" s="16">
-        <v>8</v>
+      <c r="F36" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,8 +2168,8 @@
       <c r="E37" s="19">
         <v>14514</v>
       </c>
-      <c r="F37" s="16">
-        <v>15</v>
+      <c r="F37" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,8 +2188,8 @@
       <c r="E38" s="19">
         <v>9637</v>
       </c>
-      <c r="F38" s="16">
-        <v>10</v>
+      <c r="F38" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,8 +2208,8 @@
       <c r="E39" s="19">
         <v>9862</v>
       </c>
-      <c r="F39" s="16">
-        <v>10</v>
+      <c r="F39" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,8 +2228,8 @@
       <c r="E40" s="19">
         <v>7579</v>
       </c>
-      <c r="F40" s="16">
-        <v>8</v>
+      <c r="F40" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,8 +2248,8 @@
       <c r="E41" s="19">
         <v>9525</v>
       </c>
-      <c r="F41" s="16">
-        <v>10</v>
+      <c r="F41" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2266,8 +2268,8 @@
       <c r="E42" s="19">
         <v>16225</v>
       </c>
-      <c r="F42">
-        <v>24</v>
+      <c r="F42" s="28">
+        <v>0.24</v>
       </c>
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2286,8 +2288,8 @@
       <c r="E43" s="19">
         <v>27644</v>
       </c>
-      <c r="F43">
-        <v>41</v>
+      <c r="F43" s="28">
+        <v>0.41</v>
       </c>
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2306,8 +2308,8 @@
       <c r="E44" s="19">
         <v>16969</v>
       </c>
-      <c r="F44">
-        <v>25</v>
+      <c r="F44" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2326,8 +2328,8 @@
       <c r="E45" s="19">
         <v>17659</v>
       </c>
-      <c r="F45">
-        <v>28</v>
+      <c r="F45" s="28">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2346,8 +2348,8 @@
       <c r="E46" s="19">
         <v>13968</v>
       </c>
-      <c r="F46">
-        <v>22</v>
+      <c r="F46" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2366,8 +2368,8 @@
       <c r="E47" s="19">
         <v>27156</v>
       </c>
-      <c r="F47">
-        <v>38</v>
+      <c r="F47" s="28">
+        <v>0.38</v>
       </c>
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2386,8 +2388,8 @@
       <c r="E48" s="19">
         <v>15055</v>
       </c>
-      <c r="F48">
-        <v>23</v>
+      <c r="F48" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2406,8 +2408,8 @@
       <c r="E49" s="19">
         <v>19746</v>
       </c>
-      <c r="F49">
-        <v>33</v>
+      <c r="F49" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2426,8 +2428,8 @@
       <c r="E50" s="19">
         <v>18837</v>
       </c>
-      <c r="F50">
-        <v>28</v>
+      <c r="F50" s="28">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2446,8 +2448,8 @@
       <c r="E51" s="19">
         <v>18189</v>
       </c>
-      <c r="F51">
-        <v>28</v>
+      <c r="F51" s="28">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2466,8 +2468,8 @@
       <c r="E52" s="19">
         <v>13491</v>
       </c>
-      <c r="F52">
-        <v>19</v>
+      <c r="F52" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2486,8 +2488,8 @@
       <c r="E53" s="19">
         <v>16950</v>
       </c>
-      <c r="F53">
-        <v>25</v>
+      <c r="F53" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2506,8 +2508,8 @@
       <c r="E54" s="19">
         <v>19690</v>
       </c>
-      <c r="F54">
-        <v>27</v>
+      <c r="F54" s="28">
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2526,8 +2528,8 @@
       <c r="E55" s="19">
         <v>28201</v>
       </c>
-      <c r="F55">
-        <v>42</v>
+      <c r="F55" s="28">
+        <v>0.42</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2546,8 +2548,8 @@
       <c r="E56" s="19">
         <v>11091</v>
       </c>
-      <c r="F56">
-        <v>14</v>
+      <c r="F56" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2566,8 +2568,8 @@
       <c r="E57" s="19">
         <v>7623</v>
       </c>
-      <c r="F57">
-        <v>9</v>
+      <c r="F57" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2586,8 +2588,8 @@
       <c r="E58" s="19">
         <v>8212</v>
       </c>
-      <c r="F58">
-        <v>10</v>
+      <c r="F58" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2606,8 +2608,8 @@
       <c r="E59" s="19">
         <v>18185</v>
       </c>
-      <c r="F59">
-        <v>22</v>
+      <c r="F59" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2626,8 +2628,8 @@
       <c r="E60" s="19">
         <v>11444</v>
       </c>
-      <c r="F60">
-        <v>14</v>
+      <c r="F60" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2646,8 +2648,8 @@
       <c r="E61" s="19">
         <v>17723</v>
       </c>
-      <c r="F61">
-        <v>22</v>
+      <c r="F61" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2666,8 +2668,8 @@
       <c r="E62" s="19">
         <v>13118</v>
       </c>
-      <c r="F62">
-        <v>16</v>
+      <c r="F62" s="28">
+        <v>0.16</v>
       </c>
     </row>
     <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,8 +2688,8 @@
       <c r="E63" s="19">
         <v>11552</v>
       </c>
-      <c r="F63">
-        <v>14</v>
+      <c r="F63" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2706,8 +2708,8 @@
       <c r="E64" s="19">
         <v>12119</v>
       </c>
-      <c r="F64">
-        <v>15</v>
+      <c r="F64" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2726,8 +2728,8 @@
       <c r="E65" s="19">
         <v>19209</v>
       </c>
-      <c r="F65">
-        <v>24</v>
+      <c r="F65" s="28">
+        <v>0.24</v>
       </c>
     </row>
     <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2746,8 +2748,8 @@
       <c r="E66" s="19">
         <v>14636</v>
       </c>
-      <c r="F66">
-        <v>18</v>
+      <c r="F66" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2766,8 +2768,8 @@
       <c r="E67" s="19">
         <v>15413</v>
       </c>
-      <c r="F67">
-        <v>19</v>
+      <c r="F67" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,8 +2788,8 @@
       <c r="E68" s="19">
         <v>15893</v>
       </c>
-      <c r="F68">
-        <v>20</v>
+      <c r="F68" s="28">
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2806,8 +2808,8 @@
       <c r="E69" s="19">
         <v>15713</v>
       </c>
-      <c r="F69">
-        <v>19</v>
+      <c r="F69" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2826,8 +2828,8 @@
       <c r="E70" s="19">
         <v>10803</v>
       </c>
-      <c r="F70">
-        <v>11</v>
+      <c r="F70" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2846,8 +2848,8 @@
       <c r="E71" s="19">
         <v>11677</v>
       </c>
-      <c r="F71">
-        <v>12</v>
+      <c r="F71" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2866,8 +2868,8 @@
       <c r="E72" s="19">
         <v>5983</v>
       </c>
-      <c r="F72">
-        <v>6</v>
+      <c r="F72" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2886,8 +2888,8 @@
       <c r="E73" s="19">
         <v>9717</v>
       </c>
-      <c r="F73">
-        <v>10</v>
+      <c r="F73" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2906,8 +2908,8 @@
       <c r="E74" s="19">
         <v>8874</v>
       </c>
-      <c r="F74">
-        <v>9</v>
+      <c r="F74" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2926,8 +2928,8 @@
       <c r="E75" s="19">
         <v>9176</v>
       </c>
-      <c r="F75">
-        <v>10</v>
+      <c r="F75" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2946,8 +2948,8 @@
       <c r="E76" s="19">
         <v>7456</v>
       </c>
-      <c r="F76">
-        <v>8</v>
+      <c r="F76" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2966,8 +2968,8 @@
       <c r="E77" s="19">
         <v>9633</v>
       </c>
-      <c r="F77">
-        <v>10</v>
+      <c r="F77" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2986,8 +2988,8 @@
       <c r="E78" s="19">
         <v>8150</v>
       </c>
-      <c r="F78">
-        <v>8</v>
+      <c r="F78" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3006,8 +3008,8 @@
       <c r="E79" s="19">
         <v>8143</v>
       </c>
-      <c r="F79">
-        <v>8</v>
+      <c r="F79" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3026,8 +3028,8 @@
       <c r="E80" s="19">
         <v>8568</v>
       </c>
-      <c r="F80">
-        <v>9</v>
+      <c r="F80" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3046,8 +3048,8 @@
       <c r="E81" s="19">
         <v>7834</v>
       </c>
-      <c r="F81">
-        <v>8</v>
+      <c r="F81" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3066,8 +3068,8 @@
       <c r="E82" s="19">
         <v>6458</v>
       </c>
-      <c r="F82">
-        <v>7</v>
+      <c r="F82" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,8 +3088,8 @@
       <c r="E83" s="19">
         <v>8032</v>
       </c>
-      <c r="F83">
-        <v>8</v>
+      <c r="F83" s="28">
+        <v>0.08</v>
       </c>
     </row>
     <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3106,8 +3108,8 @@
       <c r="E84" s="19">
         <v>8373</v>
       </c>
-      <c r="F84">
-        <v>9</v>
+      <c r="F84" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3126,8 +3128,8 @@
       <c r="E85" s="19">
         <v>9680</v>
       </c>
-      <c r="F85">
-        <v>10</v>
+      <c r="F85" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3146,8 +3148,8 @@
       <c r="E86" s="19">
         <v>23148</v>
       </c>
-      <c r="F86">
-        <v>23</v>
+      <c r="F86" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3166,8 +3168,8 @@
       <c r="E87" s="19">
         <v>40484</v>
       </c>
-      <c r="F87">
-        <v>41</v>
+      <c r="F87" s="28">
+        <v>0.41</v>
       </c>
     </row>
     <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3186,8 +3188,8 @@
       <c r="E88" s="19">
         <v>23067</v>
       </c>
-      <c r="F88">
-        <v>23</v>
+      <c r="F88" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3206,8 +3208,8 @@
       <c r="E89" s="19">
         <v>34261</v>
       </c>
-      <c r="F89">
-        <v>34</v>
+      <c r="F89" s="28">
+        <v>0.34</v>
       </c>
     </row>
     <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3226,8 +3228,8 @@
       <c r="E90" s="19">
         <v>22452</v>
       </c>
-      <c r="F90">
-        <v>23</v>
+      <c r="F90" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,8 +3248,8 @@
       <c r="E91" s="19">
         <v>39555</v>
       </c>
-      <c r="F91">
-        <v>40</v>
+      <c r="F91" s="28">
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3266,8 +3268,8 @@
       <c r="E92" s="19">
         <v>32488</v>
       </c>
-      <c r="F92">
-        <v>33</v>
+      <c r="F92" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="93" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,8 +3288,8 @@
       <c r="E93" s="19">
         <v>16775</v>
       </c>
-      <c r="F93">
-        <v>17</v>
+      <c r="F93" s="28">
+        <v>0.17</v>
       </c>
     </row>
     <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,8 +3308,8 @@
       <c r="E94" s="19">
         <v>27549</v>
       </c>
-      <c r="F94">
-        <v>28</v>
+      <c r="F94" s="28">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3326,8 +3328,8 @@
       <c r="E95" s="19">
         <v>17021</v>
       </c>
-      <c r="F95">
-        <v>17</v>
+      <c r="F95" s="28">
+        <v>0.17</v>
       </c>
     </row>
     <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3346,8 +3348,8 @@
       <c r="E96" s="19">
         <v>31481</v>
       </c>
-      <c r="F96">
-        <v>33</v>
+      <c r="F96" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3366,8 +3368,8 @@
       <c r="E97" s="19">
         <v>31193</v>
       </c>
-      <c r="F97">
-        <v>31</v>
+      <c r="F97" s="28">
+        <v>0.31</v>
       </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3386,8 +3388,8 @@
       <c r="E98" s="19">
         <v>25898</v>
       </c>
-      <c r="F98">
-        <v>27</v>
+      <c r="F98" s="28">
+        <v>0.27</v>
       </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3406,8 +3408,8 @@
       <c r="E99" s="19">
         <v>31183</v>
       </c>
-      <c r="F99">
-        <v>31</v>
+      <c r="F99" s="28">
+        <v>0.31</v>
       </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3426,8 +3428,8 @@
       <c r="E100" s="19">
         <v>39742</v>
       </c>
-      <c r="F100">
-        <v>41</v>
+      <c r="F100" s="28">
+        <v>0.41</v>
       </c>
     </row>
     <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3446,8 +3448,8 @@
       <c r="E101" s="19">
         <v>38772</v>
       </c>
-      <c r="F101">
-        <v>44</v>
+      <c r="F101" s="28">
+        <v>0.44</v>
       </c>
     </row>
     <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3466,8 +3468,8 @@
       <c r="E102" s="19">
         <v>25035</v>
       </c>
-      <c r="F102">
-        <v>26</v>
+      <c r="F102" s="28">
+        <v>0.26</v>
       </c>
     </row>
     <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3486,8 +3488,8 @@
       <c r="E103" s="19">
         <v>40842</v>
       </c>
-      <c r="F103">
-        <v>45</v>
+      <c r="F103" s="28">
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3506,8 +3508,8 @@
       <c r="E104" s="19">
         <v>31786</v>
       </c>
-      <c r="F104">
-        <v>33</v>
+      <c r="F104" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3526,8 +3528,8 @@
       <c r="E105" s="19">
         <v>48484</v>
       </c>
-      <c r="F105">
-        <v>49</v>
+      <c r="F105" s="28">
+        <v>0.49</v>
       </c>
     </row>
     <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3546,8 +3548,8 @@
       <c r="E106" s="19">
         <v>38553</v>
       </c>
-      <c r="F106">
-        <v>40</v>
+      <c r="F106" s="28">
+        <v>0.4</v>
       </c>
     </row>
     <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3566,8 +3568,8 @@
       <c r="E107" s="19">
         <v>45036</v>
       </c>
-      <c r="F107">
-        <v>46</v>
+      <c r="F107" s="28">
+        <v>0.46</v>
       </c>
     </row>
     <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3586,8 +3588,8 @@
       <c r="E108" s="19">
         <v>18272</v>
       </c>
-      <c r="F108">
-        <v>23</v>
+      <c r="F108" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3606,8 +3608,8 @@
       <c r="E109" s="19">
         <v>28966</v>
       </c>
-      <c r="F109">
-        <v>36</v>
+      <c r="F109" s="28">
+        <v>0.36</v>
       </c>
     </row>
     <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3626,8 +3628,8 @@
       <c r="E110" s="19">
         <v>21041</v>
       </c>
-      <c r="F110">
-        <v>26</v>
+      <c r="F110" s="28">
+        <v>0.26</v>
       </c>
     </row>
     <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3646,8 +3648,8 @@
       <c r="E111" s="19">
         <v>10167</v>
       </c>
-      <c r="F111">
-        <v>13</v>
+      <c r="F111" s="28">
+        <v>0.13</v>
       </c>
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,8 +3668,8 @@
       <c r="E112" s="19">
         <v>18030</v>
       </c>
-      <c r="F112">
-        <v>23</v>
+      <c r="F112" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="113" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3686,8 +3688,8 @@
       <c r="E113" s="19">
         <v>17535</v>
       </c>
-      <c r="F113">
-        <v>22</v>
+      <c r="F113" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="114" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3706,8 +3708,8 @@
       <c r="E114" s="19">
         <v>20034</v>
       </c>
-      <c r="F114">
-        <v>25</v>
+      <c r="F114" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3726,8 +3728,8 @@
       <c r="E115" s="19">
         <v>12059</v>
       </c>
-      <c r="F115">
-        <v>15</v>
+      <c r="F115" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3746,8 +3748,8 @@
       <c r="E116" s="19">
         <v>11557</v>
       </c>
-      <c r="F116">
-        <v>14</v>
+      <c r="F116" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3766,8 +3768,8 @@
       <c r="E117" s="19">
         <v>13931</v>
       </c>
-      <c r="F117">
-        <v>17</v>
+      <c r="F117" s="28">
+        <v>0.17</v>
       </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3786,8 +3788,8 @@
       <c r="E118" s="19">
         <v>9255</v>
       </c>
-      <c r="F118">
-        <v>12</v>
+      <c r="F118" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3806,8 +3808,8 @@
       <c r="E119" s="19">
         <v>14579</v>
       </c>
-      <c r="F119">
-        <v>18</v>
+      <c r="F119" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3826,8 +3828,8 @@
       <c r="E120" s="19">
         <v>20838</v>
       </c>
-      <c r="F120">
-        <v>26</v>
+      <c r="F120" s="28">
+        <v>0.26</v>
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3846,8 +3848,8 @@
       <c r="E121" s="19">
         <v>16693</v>
       </c>
-      <c r="F121">
-        <v>21</v>
+      <c r="F121" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3866,8 +3868,8 @@
       <c r="E122" s="19">
         <v>20149</v>
       </c>
-      <c r="F122">
-        <v>25</v>
+      <c r="F122" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3886,8 +3888,8 @@
       <c r="E123" s="19">
         <v>16453</v>
       </c>
-      <c r="F123">
-        <v>21</v>
+      <c r="F123" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3906,8 +3908,8 @@
       <c r="E124" s="19">
         <v>19647</v>
       </c>
-      <c r="F124">
-        <v>25</v>
+      <c r="F124" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3926,8 +3928,8 @@
       <c r="E125" s="19">
         <v>17553</v>
       </c>
-      <c r="F125">
-        <v>22</v>
+      <c r="F125" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3946,8 +3948,8 @@
       <c r="E126" s="19">
         <v>17556</v>
       </c>
-      <c r="F126">
-        <v>17</v>
+      <c r="F126" s="28">
+        <v>0.17</v>
       </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3966,8 +3968,8 @@
       <c r="E127" s="19">
         <v>26208</v>
       </c>
-      <c r="F127">
-        <v>25</v>
+      <c r="F127" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3986,8 +3988,8 @@
       <c r="E128" s="19">
         <v>23639</v>
       </c>
-      <c r="F128">
-        <v>22</v>
+      <c r="F128" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4004,8 +4006,8 @@
       <c r="E129" s="19">
         <v>14863</v>
       </c>
-      <c r="F129">
-        <v>19</v>
+      <c r="F129" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,8 +4024,8 @@
       <c r="E130" s="19">
         <v>12033</v>
       </c>
-      <c r="F130">
-        <v>15</v>
+      <c r="F130" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4040,8 +4042,8 @@
       <c r="E131" s="19">
         <v>10812</v>
       </c>
-      <c r="F131">
-        <v>14</v>
+      <c r="F131" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4058,8 +4060,8 @@
       <c r="E132" s="19">
         <v>12059</v>
       </c>
-      <c r="F132">
-        <v>15</v>
+      <c r="F132" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4076,8 +4078,8 @@
       <c r="E133" s="19">
         <v>17829</v>
       </c>
-      <c r="F133">
-        <v>23</v>
+      <c r="F133" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4094,8 +4096,8 @@
       <c r="E134" s="19">
         <v>11202</v>
       </c>
-      <c r="F134">
-        <v>14</v>
+      <c r="F134" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4112,8 +4114,8 @@
       <c r="E135" s="19">
         <v>11356</v>
       </c>
-      <c r="F135">
-        <v>14</v>
+      <c r="F135" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4130,8 +4132,8 @@
       <c r="E136" s="19">
         <v>16797</v>
       </c>
-      <c r="F136">
-        <v>21</v>
+      <c r="F136" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4148,8 +4150,8 @@
       <c r="E137" s="19">
         <v>13939</v>
       </c>
-      <c r="F137">
-        <v>18</v>
+      <c r="F137" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4166,8 +4168,8 @@
       <c r="E138" s="19">
         <v>9563</v>
       </c>
-      <c r="F138">
-        <v>12</v>
+      <c r="F138" s="28">
+        <v>0.12</v>
       </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4184,8 +4186,8 @@
       <c r="E139" s="19">
         <v>11369</v>
       </c>
-      <c r="F139">
-        <v>14</v>
+      <c r="F139" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4202,8 +4204,8 @@
       <c r="E140" s="19">
         <v>11744</v>
       </c>
-      <c r="F140">
-        <v>15</v>
+      <c r="F140" s="28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4220,8 +4222,8 @@
       <c r="E141" s="19">
         <v>11046</v>
       </c>
-      <c r="F141">
-        <v>14</v>
+      <c r="F141" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4238,8 +4240,8 @@
       <c r="E142" s="19">
         <v>13842</v>
       </c>
-      <c r="F142">
-        <v>18</v>
+      <c r="F142" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,8 +4258,8 @@
       <c r="E143" s="19">
         <v>11220</v>
       </c>
-      <c r="F143">
-        <v>18</v>
+      <c r="F143" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4274,8 +4276,8 @@
       <c r="E144" s="19">
         <v>6109</v>
       </c>
-      <c r="F144">
-        <v>10</v>
+      <c r="F144" s="28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4292,8 +4294,8 @@
       <c r="E145" s="19">
         <v>19280</v>
       </c>
-      <c r="F145">
-        <v>30</v>
+      <c r="F145" s="28">
+        <v>0.31</v>
       </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4310,8 +4312,8 @@
       <c r="E146" s="19">
         <v>4235</v>
       </c>
-      <c r="F146">
-        <v>7</v>
+      <c r="F146" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4328,8 +4330,8 @@
       <c r="E147" s="19">
         <v>3981</v>
       </c>
-      <c r="F147">
-        <v>6</v>
+      <c r="F147" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4346,8 +4348,8 @@
       <c r="E148" s="19">
         <v>13992</v>
       </c>
-      <c r="F148">
-        <v>22</v>
+      <c r="F148" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="149" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4364,8 +4366,8 @@
       <c r="E149" s="19">
         <v>16545</v>
       </c>
-      <c r="F149">
-        <v>26</v>
+      <c r="F149" s="28">
+        <v>0.26</v>
       </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4382,8 +4384,8 @@
       <c r="E150" s="19">
         <v>18228</v>
       </c>
-      <c r="F150">
-        <v>29</v>
+      <c r="F150" s="28">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="151" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4400,8 +4402,8 @@
       <c r="E151" s="19">
         <v>3227</v>
       </c>
-      <c r="F151">
-        <v>6</v>
+      <c r="F151" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4418,8 +4420,8 @@
       <c r="E152" s="19">
         <v>3030</v>
       </c>
-      <c r="F152">
-        <v>6</v>
+      <c r="F152" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="153" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4436,8 +4438,8 @@
       <c r="E153" s="19">
         <v>4338</v>
       </c>
-      <c r="F153">
-        <v>9</v>
+      <c r="F153" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="154" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4454,8 +4456,8 @@
       <c r="E154" s="19">
         <v>2847</v>
       </c>
-      <c r="F154">
-        <v>6</v>
+      <c r="F154" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="155" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4472,8 +4474,8 @@
       <c r="E155" s="19">
         <v>3097</v>
       </c>
-      <c r="F155">
-        <v>6</v>
+      <c r="F155" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4490,8 +4492,8 @@
       <c r="E156" s="19">
         <v>3074</v>
       </c>
-      <c r="F156">
-        <v>6</v>
+      <c r="F156" s="28">
+        <v>0.06</v>
       </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4508,8 +4510,8 @@
       <c r="E157" s="19">
         <v>4321</v>
       </c>
-      <c r="F157">
-        <v>9</v>
+      <c r="F157" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="158" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4526,8 +4528,8 @@
       <c r="E158" s="19">
         <v>3462</v>
       </c>
-      <c r="F158">
-        <v>7</v>
+      <c r="F158" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4544,8 +4546,8 @@
       <c r="E159" s="19">
         <v>4661</v>
       </c>
-      <c r="F159">
-        <v>9</v>
+      <c r="F159" s="28">
+        <v>0.09</v>
       </c>
     </row>
     <row r="160" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4562,8 +4564,8 @@
       <c r="E160" s="19">
         <v>3618</v>
       </c>
-      <c r="F160">
-        <v>7</v>
+      <c r="F160" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4580,8 +4582,8 @@
       <c r="E161" s="19">
         <v>9145</v>
       </c>
-      <c r="F161">
-        <v>10</v>
+      <c r="F161" s="28">
+        <v>0.11</v>
       </c>
     </row>
     <row r="162" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4598,8 +4600,8 @@
       <c r="E162" s="19">
         <v>15848</v>
       </c>
-      <c r="F162">
-        <v>19</v>
+      <c r="F162" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="163" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4616,8 +4618,8 @@
       <c r="E163" s="19">
         <v>16964</v>
       </c>
-      <c r="F163">
-        <v>20</v>
+      <c r="F163" s="28">
+        <v>0.2</v>
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4634,8 +4636,8 @@
       <c r="E164" s="19">
         <v>22574</v>
       </c>
-      <c r="F164">
-        <v>27</v>
+      <c r="F164" s="28">
+        <v>0.27</v>
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4652,8 +4654,8 @@
       <c r="E165" s="19">
         <v>18913</v>
       </c>
-      <c r="F165">
-        <v>22</v>
+      <c r="F165" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4670,8 +4672,8 @@
       <c r="E166" s="19">
         <v>22681</v>
       </c>
-      <c r="F166">
-        <v>27</v>
+      <c r="F166" s="28">
+        <v>0.27</v>
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4688,8 +4690,8 @@
       <c r="E167" s="19">
         <v>17265</v>
       </c>
-      <c r="F167">
-        <v>20</v>
+      <c r="F167" s="28">
+        <v>0.2</v>
       </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4706,8 +4708,8 @@
       <c r="E168" s="19">
         <v>19655</v>
       </c>
-      <c r="F168">
-        <v>23</v>
+      <c r="F168" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4724,8 +4726,8 @@
       <c r="E169" s="19">
         <v>17610</v>
       </c>
-      <c r="F169">
-        <v>21</v>
+      <c r="F169" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4742,8 +4744,8 @@
       <c r="E170" s="19">
         <v>17458</v>
       </c>
-      <c r="F170">
-        <v>21</v>
+      <c r="F170" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4762,8 +4764,8 @@
       <c r="E171" s="19">
         <v>22616</v>
       </c>
-      <c r="F171">
-        <v>25</v>
+      <c r="F171" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4782,8 +4784,8 @@
       <c r="E172" s="19">
         <v>17156</v>
       </c>
-      <c r="F172">
-        <v>19</v>
+      <c r="F172" s="28">
+        <v>0.19</v>
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4802,8 +4804,8 @@
       <c r="E173" s="19">
         <v>23373</v>
       </c>
-      <c r="F173">
-        <v>26</v>
+      <c r="F173" s="28">
+        <v>0.26</v>
       </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4822,8 +4824,8 @@
       <c r="E174" s="19">
         <v>20272</v>
       </c>
-      <c r="F174">
-        <v>23</v>
+      <c r="F174" s="28">
+        <v>0.23</v>
       </c>
     </row>
     <row r="175" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4842,8 +4844,8 @@
       <c r="E175" s="19">
         <v>24866</v>
       </c>
-      <c r="F175">
-        <v>28</v>
+      <c r="F175" s="28">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="176" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4862,8 +4864,8 @@
       <c r="E176" s="19">
         <v>22742</v>
       </c>
-      <c r="F176">
-        <v>25</v>
+      <c r="F176" s="28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4880,8 +4882,8 @@
       <c r="E177" s="19">
         <v>43993</v>
       </c>
-      <c r="F177">
-        <v>49</v>
+      <c r="F177" s="28">
+        <v>0.49</v>
       </c>
     </row>
     <row r="178" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4900,8 +4902,8 @@
       <c r="E178" s="19">
         <v>19703</v>
       </c>
-      <c r="F178">
-        <v>22</v>
+      <c r="F178" s="28">
+        <v>0.22</v>
       </c>
     </row>
     <row r="179" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4920,8 +4922,8 @@
       <c r="E179" s="19">
         <v>16265</v>
       </c>
-      <c r="F179">
-        <v>18</v>
+      <c r="F179" s="28">
+        <v>0.18</v>
       </c>
     </row>
     <row r="180" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4940,8 +4942,8 @@
       <c r="E180" s="19">
         <v>18545</v>
       </c>
-      <c r="F180">
-        <v>21</v>
+      <c r="F180" s="28">
+        <v>0.21</v>
       </c>
     </row>
     <row r="181" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4958,8 +4960,8 @@
       <c r="E181" s="19">
         <v>31610</v>
       </c>
-      <c r="F181">
-        <v>35</v>
+      <c r="F181" s="28">
+        <v>0.35</v>
       </c>
     </row>
     <row r="182" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4978,8 +4980,8 @@
       <c r="E182" s="19">
         <v>21107</v>
       </c>
-      <c r="F182">
-        <v>24</v>
+      <c r="F182" s="28">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -4991,9 +4993,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA94D20-22D9-429B-BD50-49B7E14D65C8}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5005,10 +5009,11 @@
     <col min="6" max="6" width="9.28515625" style="16" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="16"/>
+    <col min="9" max="9" width="12.28515625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
@@ -5033,8 +5038,11 @@
       <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -5059,8 +5067,12 @@
       <c r="H2" s="19">
         <v>6748</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="28">
+        <f>H2/F2</f>
+        <v>8.0975352197182424E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -5085,8 +5097,12 @@
       <c r="H3" s="19">
         <v>5850</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="28">
+        <f t="shared" ref="I3:I66" si="0">H3/F3</f>
+        <v>7.0444583594239205E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5111,8 +5127,12 @@
       <c r="H4" s="19">
         <v>8116</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="28">
+        <f t="shared" si="0"/>
+        <v>9.7392389569558271E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5137,8 +5157,12 @@
       <c r="H5" s="19">
         <v>4632</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>5.539212169046423E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5163,8 +5187,12 @@
       <c r="H6" s="19">
         <v>12765</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15317877456980344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5189,8 +5217,12 @@
       <c r="H7" s="19">
         <v>10187</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.12251352976548406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5215,8 +5247,12 @@
       <c r="H8" s="19">
         <v>7896</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>9.4752379009516038E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -5241,8 +5277,12 @@
       <c r="H9" s="19">
         <v>8721</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10442310455481585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5267,8 +5307,12 @@
       <c r="H10" s="19">
         <v>7434</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>8.9207286341709269E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5293,8 +5337,12 @@
       <c r="H11" s="19">
         <v>8876</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10784933171324423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5319,8 +5367,12 @@
       <c r="H12" s="19">
         <v>7914</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>9.4967240262077909E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -5345,8 +5397,12 @@
       <c r="H13" s="19">
         <v>7361</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>8.7250788232226248E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -5371,8 +5427,12 @@
       <c r="H14" s="19">
         <v>7670</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>9.518727196008836E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -5397,8 +5457,12 @@
       <c r="H15" s="19">
         <v>7909</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>9.8153342103303634E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -5423,8 +5487,12 @@
       <c r="H16" s="19">
         <v>11323</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.14052222691057112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -5449,8 +5517,12 @@
       <c r="H17" s="19">
         <v>9167</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1137655439449974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -5475,8 +5547,12 @@
       <c r="H18" s="19">
         <v>23056</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28613269130531904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -5501,8 +5577,12 @@
       <c r="H19" s="19">
         <v>23173</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28758470053860857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -5527,8 +5607,12 @@
       <c r="H20" s="19">
         <v>12467</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15471965052495718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -5553,8 +5637,12 @@
       <c r="H21" s="19">
         <v>14908</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18501327905880016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -5579,8 +5667,12 @@
       <c r="H22" s="19">
         <v>11481</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1424830598922783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -5605,8 +5697,12 @@
       <c r="H23" s="19">
         <v>19838</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24620234312946784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -5631,8 +5727,12 @@
       <c r="H24" s="19">
         <v>10840</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.12388571428571428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -5657,8 +5757,12 @@
       <c r="H25" s="19">
         <v>11698</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13369142857142857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -5683,8 +5787,12 @@
       <c r="H26" s="19">
         <v>10030</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="28">
+        <f t="shared" si="0"/>
+        <v>0.11462857142857143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -5709,8 +5817,12 @@
       <c r="H27" s="19">
         <v>11564</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -5735,8 +5847,12 @@
       <c r="H28" s="19">
         <v>14330</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16377142857142857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -5761,8 +5877,12 @@
       <c r="H29" s="19">
         <v>13484</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15410285714285715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -5787,8 +5907,12 @@
       <c r="H30" s="19">
         <v>9362</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10699428571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -5813,8 +5937,12 @@
       <c r="H31" s="19">
         <v>11312</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="28">
+        <f t="shared" si="0"/>
+        <v>0.12928000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -5839,8 +5967,12 @@
       <c r="H32" s="19">
         <v>14120</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1427271808349338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -5865,8 +5997,12 @@
       <c r="H33" s="19">
         <v>26354</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="28">
+        <f t="shared" si="0"/>
+        <v>0.26639037703426666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -5891,8 +6027,12 @@
       <c r="H34" s="19">
         <v>15321</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1548670777317295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -5917,8 +6057,12 @@
       <c r="H35" s="19">
         <v>9588</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="28">
+        <f t="shared" si="0"/>
+        <v>9.6917012028707172E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -5943,8 +6087,12 @@
       <c r="H36" s="19">
         <v>8242</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="28">
+        <f t="shared" si="0"/>
+        <v>8.3311432325886989E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -5969,8 +6117,12 @@
       <c r="H37" s="19">
         <v>14514</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="28">
+        <f t="shared" si="0"/>
+        <v>0.14670979480440716</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -5995,8 +6147,12 @@
       <c r="H38" s="19">
         <v>9637</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="28">
+        <f t="shared" si="0"/>
+        <v>9.7412311735570606E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -6021,8 +6177,12 @@
       <c r="H39" s="19">
         <v>9862</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="28">
+        <f t="shared" si="0"/>
+        <v>9.9686647124229255E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -6047,8 +6207,12 @@
       <c r="H40" s="19">
         <v>7579</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="28">
+        <f t="shared" si="0"/>
+        <v>7.6609724047306177E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -6073,8 +6237,12 @@
       <c r="H41" s="19">
         <v>9525</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="28">
+        <f t="shared" si="0"/>
+        <v>9.628019811988274E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -6099,8 +6267,12 @@
       <c r="H42" s="19">
         <v>16225</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24302383056483381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -6125,8 +6297,12 @@
       <c r="H43" s="19">
         <v>27644</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="28">
+        <f t="shared" si="0"/>
+        <v>0.4140616808711412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -6151,8 +6327,12 @@
       <c r="H44" s="19">
         <v>16969</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25416772763356948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -6177,8 +6357,12 @@
       <c r="H45" s="19">
         <v>17659</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="28">
+        <f t="shared" si="0"/>
+        <v>0.27644885563104671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -6203,8 +6387,12 @@
       <c r="H46" s="19">
         <v>13968</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="28">
+        <f t="shared" si="0"/>
+        <v>0.21867025689997965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -6229,8 +6417,12 @@
       <c r="H47" s="19">
         <v>27156</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="28">
+        <f t="shared" si="0"/>
+        <v>0.37716666666666665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -6255,8 +6447,12 @@
       <c r="H48" s="19">
         <v>15055</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22549915372287047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -6281,8 +6477,12 @@
       <c r="H49" s="19">
         <v>19746</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33069283716568137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -6307,8 +6507,12 @@
       <c r="H50" s="19">
         <v>18837</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28214729715561015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -6333,8 +6537,12 @@
       <c r="H51" s="19">
         <v>18189</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28475037963586269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -6359,8 +6567,12 @@
       <c r="H52" s="19">
         <v>13491</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18737500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -6385,8 +6597,12 @@
       <c r="H53" s="19">
         <v>16950</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25388313886434105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -6411,8 +6627,12 @@
       <c r="H54" s="19">
         <v>19690</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="28">
+        <f t="shared" si="0"/>
+        <v>0.27347222222222223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -6437,8 +6657,12 @@
       <c r="H55" s="19">
         <v>28201</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="28">
+        <f t="shared" si="0"/>
+        <v>0.42240462531641776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -6463,8 +6687,12 @@
       <c r="H56" s="19">
         <v>11091</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13662232076866224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -6489,8 +6717,12 @@
       <c r="H57" s="19">
         <v>7623</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="28">
+        <f t="shared" si="0"/>
+        <v>9.3902439024390244E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -6515,8 +6747,12 @@
       <c r="H58" s="19">
         <v>8212</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10115792067011579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -6541,8 +6777,12 @@
       <c r="H59" s="19">
         <v>18185</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22400837644740085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -6567,8 +6807,12 @@
       <c r="H60" s="19">
         <v>11444</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="28">
+        <f t="shared" si="0"/>
+        <v>0.14097068243409708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -6593,8 +6837,12 @@
       <c r="H61" s="19">
         <v>17723</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="28">
+        <f t="shared" si="0"/>
+        <v>0.21831731953683173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -6619,8 +6867,12 @@
       <c r="H62" s="19">
         <v>13118</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16159152500615914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -6645,8 +6897,12 @@
       <c r="H63" s="19">
         <v>11552</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1423010593742301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -6671,8 +6927,12 @@
       <c r="H64" s="19">
         <v>12119</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="28">
+        <f t="shared" si="0"/>
+        <v>0.14926898964145388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -6697,8 +6957,12 @@
       <c r="H65" s="19">
         <v>19209</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="28">
+        <f t="shared" si="0"/>
+        <v>0.23662232076866224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -6723,8 +6987,12 @@
       <c r="H66" s="19">
         <v>14636</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18029071199802907</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -6749,8 +7017,12 @@
       <c r="H67" s="19">
         <v>15413</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="28">
+        <f t="shared" ref="I67:I130" si="1">H67/F67</f>
+        <v>0.18986203498398621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -6775,8 +7047,12 @@
       <c r="H68" s="19">
         <v>15893</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19577482138457747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -6801,8 +7077,12 @@
       <c r="H69" s="19">
         <v>15713</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19355752648435576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -6827,8 +7107,12 @@
       <c r="H70" s="19">
         <v>10803</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1122098156323033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -6853,8 +7137,12 @@
       <c r="H71" s="19">
         <v>11677</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="28">
+        <f t="shared" si="1"/>
+        <v>0.12128797714879253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -6879,8 +7167,12 @@
       <c r="H72" s="19">
         <v>5983</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="28">
+        <f t="shared" si="1"/>
+        <v>6.2144897429239156E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -6905,8 +7197,12 @@
       <c r="H73" s="19">
         <v>9717</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="28">
+        <f t="shared" si="1"/>
+        <v>0.10092962866787847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -6931,8 +7227,12 @@
       <c r="H74" s="19">
         <v>8874</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="28">
+        <f t="shared" si="1"/>
+        <v>9.2173461438587387E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -6957,8 +7257,12 @@
       <c r="H75" s="19">
         <v>9176</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="28">
+        <f t="shared" si="1"/>
+        <v>9.5310309010646591E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -6983,8 +7287,12 @@
       <c r="H76" s="19">
         <v>7456</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="28">
+        <f t="shared" si="1"/>
+        <v>7.7444819527395486E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -7009,8 +7317,12 @@
       <c r="H77" s="19">
         <v>9633</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="28">
+        <f t="shared" si="1"/>
+        <v>0.10005712801869644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -7035,8 +7347,12 @@
       <c r="H78" s="19">
         <v>8150</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="28">
+        <f t="shared" si="1"/>
+        <v>8.4181170273201461E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -7061,8 +7377,12 @@
       <c r="H79" s="19">
         <v>8143</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="28">
+        <f t="shared" si="1"/>
+        <v>8.4580628408205655E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -7087,8 +7407,12 @@
       <c r="H80" s="19">
         <v>8568</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="28">
+        <f t="shared" si="1"/>
+        <v>8.8995066216567123E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -7113,8 +7437,12 @@
       <c r="H81" s="19">
         <v>7834</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="28">
+        <f t="shared" si="1"/>
+        <v>8.1371072448714624E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -7139,8 +7467,12 @@
       <c r="H82" s="19">
         <v>6458</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="28">
+        <f t="shared" si="1"/>
+        <v>6.745704287877996E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -7165,8 +7497,12 @@
       <c r="H83" s="19">
         <v>8032</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3425948045743006E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -7191,8 +7527,12 @@
       <c r="H84" s="19">
         <v>8373</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="28">
+        <f t="shared" si="1"/>
+        <v>8.6969618280965985E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -7217,8 +7557,12 @@
       <c r="H85" s="19">
         <v>9680</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="28">
+        <f t="shared" si="1"/>
+        <v>0.10054531290573877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -7243,8 +7587,12 @@
       <c r="H86" s="19">
         <v>23148</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="28">
+        <f t="shared" si="1"/>
+        <v>0.23215091614766675</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -7269,8 +7617,12 @@
       <c r="H87" s="19">
         <v>40484</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="28">
+        <f t="shared" si="1"/>
+        <v>0.40601337866433995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -7295,8 +7647,12 @@
       <c r="H88" s="19">
         <v>23067</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="28">
+        <f t="shared" si="1"/>
+        <v>0.23133856846285766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -7321,8 +7677,12 @@
       <c r="H89" s="19">
         <v>34261</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="28">
+        <f t="shared" si="1"/>
+        <v>0.34360301270672244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -7347,8 +7707,12 @@
       <c r="H90" s="19">
         <v>22452</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="28">
+        <f t="shared" si="1"/>
+        <v>0.22517074344856636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -7373,8 +7737,12 @@
       <c r="H91" s="19">
         <v>39555</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="28">
+        <f t="shared" si="1"/>
+        <v>0.39669645274844301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>91</v>
       </c>
@@ -7399,8 +7767,12 @@
       <c r="H92" s="19">
         <v>32488</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="28">
+        <f t="shared" si="1"/>
+        <v>0.32582162449478996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -7425,8 +7797,12 @@
       <c r="H93" s="19">
         <v>16775</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16823620262558794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -7451,8 +7827,12 @@
       <c r="H94" s="19">
         <v>27549</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="28">
+        <f t="shared" si="1"/>
+        <v>0.27628847368896109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>94</v>
       </c>
@@ -7477,8 +7857,12 @@
       <c r="H95" s="19">
         <v>17021</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17070846872868778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -7503,8 +7887,12 @@
       <c r="H96" s="19">
         <v>31481</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="28">
+        <f t="shared" si="1"/>
+        <v>0.32720790761971086</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -7529,8 +7917,12 @@
       <c r="H97" s="19">
         <v>31193</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="28">
+        <f t="shared" si="1"/>
+        <v>0.31078940289138862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -7555,8 +7947,12 @@
       <c r="H98" s="19">
         <v>25898</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26917919988358918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -7581,8 +7977,12 @@
       <c r="H99" s="19">
         <v>31183</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="28">
+        <f t="shared" si="1"/>
+        <v>0.3106897685494236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -7607,8 +8007,12 @@
       <c r="H100" s="19">
         <v>39742</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="28">
+        <f t="shared" si="1"/>
+        <v>0.41307127043685232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -7633,8 +8037,12 @@
       <c r="H101" s="19">
         <v>38772</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="28">
+        <f t="shared" si="1"/>
+        <v>0.44109716834093676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -7659,8 +8067,12 @@
       <c r="H102" s="19">
         <v>25035</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26020933157331283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -7685,8 +8097,12 @@
       <c r="H103" s="19">
         <v>40842</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="28">
+        <f t="shared" si="1"/>
+        <v>0.44573711092679091</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -7711,8 +8127,12 @@
       <c r="H104" s="19">
         <v>31786</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="28">
+        <f t="shared" si="1"/>
+        <v>0.33037802330294874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -7737,8 +8157,12 @@
       <c r="H105" s="19">
         <v>48484</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="28">
+        <f t="shared" si="1"/>
+        <v>0.49222335025380709</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -7763,8 +8187,12 @@
       <c r="H106" s="19">
         <v>38553</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="28">
+        <f t="shared" si="1"/>
+        <v>0.40071301618318073</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>106</v>
       </c>
@@ -7789,8 +8217,12 @@
       <c r="H107" s="19">
         <v>45036</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="28">
+        <f t="shared" si="1"/>
+        <v>0.45756667513335025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -7815,8 +8247,12 @@
       <c r="H108" s="19">
         <v>18272</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="28">
+        <f t="shared" si="1"/>
+        <v>0.22913609972035162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>108</v>
       </c>
@@ -7841,8 +8277,12 @@
       <c r="H109" s="19">
         <v>28966</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="28">
+        <f t="shared" si="1"/>
+        <v>0.36324191465081573</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>109</v>
       </c>
@@ -7867,8 +8307,12 @@
       <c r="H110" s="19">
         <v>21041</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26386015073423374</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>110</v>
       </c>
@@ -7893,8 +8337,12 @@
       <c r="H111" s="19">
         <v>10167</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="28">
+        <f t="shared" si="1"/>
+        <v>0.12749708438358226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -7919,8 +8367,12 @@
       <c r="H112" s="19">
         <v>18030</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="28">
+        <f t="shared" si="1"/>
+        <v>0.2261013505887664</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>112</v>
       </c>
@@ -7945,8 +8397,12 @@
       <c r="H113" s="19">
         <v>17535</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="28">
+        <f t="shared" si="1"/>
+        <v>0.21989390918325119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>113</v>
       </c>
@@ -7971,8 +8427,12 @@
       <c r="H114" s="19">
         <v>20034</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="28">
+        <f t="shared" si="1"/>
+        <v>0.25123208306685224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>114</v>
       </c>
@@ -7997,8 +8457,12 @@
       <c r="H115" s="19">
         <v>12059</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="28">
+        <f t="shared" si="1"/>
+        <v>0.15122330486688487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>115</v>
       </c>
@@ -8023,8 +8487,12 @@
       <c r="H116" s="19">
         <v>11557</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1449280814616957</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>116</v>
       </c>
@@ -8049,8 +8517,12 @@
       <c r="H117" s="19">
         <v>13931</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17469871963683334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>117</v>
       </c>
@@ -8075,8 +8547,12 @@
       <c r="H118" s="19">
         <v>9255</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="28">
+        <f t="shared" si="1"/>
+        <v>0.11606034385463301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>118</v>
       </c>
@@ -8101,8 +8577,12 @@
       <c r="H119" s="19">
         <v>14579</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18282482474950779</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>119</v>
       </c>
@@ -8127,8 +8607,12 @@
       <c r="H120" s="19">
         <v>20838</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26132430398796086</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>120</v>
       </c>
@@ -8153,8 +8637,12 @@
       <c r="H121" s="19">
         <v>16693</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I121" s="28">
+        <f t="shared" si="1"/>
+        <v>0.20933498865104147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>121</v>
       </c>
@@ -8179,8 +8667,12 @@
       <c r="H122" s="19">
         <v>20149</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="28">
+        <f t="shared" si="1"/>
+        <v>0.25267421591863864</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>122</v>
       </c>
@@ -8205,8 +8697,12 @@
       <c r="H123" s="19">
         <v>16453</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="28">
+        <f t="shared" si="1"/>
+        <v>0.20632532009079166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>123</v>
       </c>
@@ -8231,8 +8727,12 @@
       <c r="H124" s="19">
         <v>19647</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I124" s="28">
+        <f t="shared" si="1"/>
+        <v>0.24637899251344947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>124</v>
       </c>
@@ -8257,8 +8757,12 @@
       <c r="H125" s="19">
         <v>17553</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="28">
+        <f t="shared" si="1"/>
+        <v>0.22011963432526993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>125</v>
       </c>
@@ -8283,8 +8787,12 @@
       <c r="H126" s="19">
         <v>17556</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16719999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>126</v>
       </c>
@@ -8309,8 +8817,12 @@
       <c r="H127" s="19">
         <v>26208</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="28">
+        <f t="shared" si="1"/>
+        <v>0.24856313663005747</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>127</v>
       </c>
@@ -8335,8 +8847,12 @@
       <c r="H128" s="19">
         <v>23639</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="28">
+        <f t="shared" si="1"/>
+        <v>0.22420661266764041</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>128</v>
       </c>
@@ -8359,8 +8875,12 @@
       <c r="H129" s="19">
         <v>14863</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I129" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18916648636265287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>129</v>
       </c>
@@ -8383,8 +8903,12 @@
       <c r="H130" s="19">
         <v>12033</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="28">
+        <f t="shared" si="1"/>
+        <v>0.15314810808058954</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>130</v>
       </c>
@@ -8407,8 +8931,12 @@
       <c r="H131" s="19">
         <v>10812</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I131" s="28">
+        <f t="shared" ref="I131:I182" si="2">H131/F131</f>
+        <v>0.13760802331649083</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>131</v>
       </c>
@@ -8431,8 +8959,12 @@
       <c r="H132" s="19">
         <v>12059</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15347901897646715</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>132</v>
       </c>
@@ -8455,8 +8987,12 @@
       <c r="H133" s="19">
         <v>17829</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22691578317699915</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>133</v>
       </c>
@@ -8479,8 +9015,12 @@
       <c r="H134" s="19">
         <v>11202</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="28">
+        <f t="shared" si="2"/>
+        <v>0.14257168675465504</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>134</v>
       </c>
@@ -8503,8 +9043,12 @@
       <c r="H135" s="19">
         <v>11356</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="28">
+        <f t="shared" si="2"/>
+        <v>0.14453169744562244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>135</v>
       </c>
@@ -8527,8 +9071,12 @@
       <c r="H136" s="19">
         <v>16797</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="28">
+        <f t="shared" si="2"/>
+        <v>0.2137811660790877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>136</v>
       </c>
@@ -8551,8 +9099,12 @@
       <c r="H137" s="19">
         <v>13939</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17740416433335029</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>137</v>
       </c>
@@ -8575,8 +9127,12 @@
       <c r="H138" s="19">
         <v>9563</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="28">
+        <f t="shared" si="2"/>
+        <v>0.12171002392709872</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>138</v>
       </c>
@@ -8599,8 +9155,12 @@
       <c r="H139" s="19">
         <v>11369</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I139" s="28">
+        <f t="shared" si="2"/>
+        <v>0.14469531130682686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>139</v>
       </c>
@@ -8623,8 +9183,12 @@
       <c r="H140" s="19">
         <v>11744</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="28">
+        <f t="shared" si="2"/>
+        <v>0.14946800386906278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>140</v>
       </c>
@@ -8647,8 +9211,12 @@
       <c r="H141" s="19">
         <v>11046</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="28">
+        <f t="shared" si="2"/>
+        <v>0.140584432113221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>141</v>
       </c>
@@ -8671,8 +9239,12 @@
       <c r="H142" s="19">
         <v>13842</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17616962785725196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>142</v>
       </c>
@@ -8695,8 +9267,12 @@
       <c r="H143" s="19">
         <v>11220</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17952000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>143</v>
       </c>
@@ -8719,8 +9295,12 @@
       <c r="H144" s="19">
         <v>6109</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I144" s="28">
+        <f t="shared" si="2"/>
+        <v>9.7743999999999998E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>144</v>
       </c>
@@ -8743,8 +9323,12 @@
       <c r="H145" s="19">
         <v>19280</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="28">
+        <f t="shared" si="2"/>
+        <v>0.30847999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>145</v>
       </c>
@@ -8767,8 +9351,12 @@
       <c r="H146" s="19">
         <v>4235</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I146" s="28">
+        <f t="shared" si="2"/>
+        <v>6.7760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>146</v>
       </c>
@@ -8791,8 +9379,12 @@
       <c r="H147" s="19">
         <v>3981</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I147" s="28">
+        <f t="shared" si="2"/>
+        <v>6.3696000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>147</v>
       </c>
@@ -8815,8 +9407,12 @@
       <c r="H148" s="19">
         <v>13992</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22387199999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>148</v>
       </c>
@@ -8839,8 +9435,12 @@
       <c r="H149" s="19">
         <v>16545</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26472000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>149</v>
       </c>
@@ -8863,8 +9463,12 @@
       <c r="H150" s="19">
         <v>18228</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="28">
+        <f t="shared" si="2"/>
+        <v>0.29164800000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>150</v>
       </c>
@@ -8887,8 +9491,12 @@
       <c r="H151" s="19">
         <v>3227</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I151" s="28">
+        <f t="shared" si="2"/>
+        <v>6.454E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>151</v>
       </c>
@@ -8911,8 +9519,12 @@
       <c r="H152" s="19">
         <v>3030</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I152" s="28">
+        <f t="shared" si="2"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>152</v>
       </c>
@@ -8935,8 +9547,12 @@
       <c r="H153" s="19">
         <v>4338</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I153" s="28">
+        <f t="shared" si="2"/>
+        <v>8.6760000000000004E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>153</v>
       </c>
@@ -8959,8 +9575,12 @@
       <c r="H154" s="19">
         <v>2847</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="28">
+        <f t="shared" si="2"/>
+        <v>5.6939999999999998E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>154</v>
       </c>
@@ -8983,8 +9603,12 @@
       <c r="H155" s="19">
         <v>3097</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I155" s="28">
+        <f t="shared" si="2"/>
+        <v>6.1940000000000002E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>155</v>
       </c>
@@ -9007,8 +9631,12 @@
       <c r="H156" s="19">
         <v>3074</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="28">
+        <f t="shared" si="2"/>
+        <v>6.148E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>156</v>
       </c>
@@ -9031,8 +9659,12 @@
       <c r="H157" s="19">
         <v>4321</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I157" s="28">
+        <f t="shared" si="2"/>
+        <v>8.6419999999999997E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>157</v>
       </c>
@@ -9055,8 +9687,12 @@
       <c r="H158" s="19">
         <v>3462</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I158" s="28">
+        <f t="shared" si="2"/>
+        <v>6.9239999999999996E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>158</v>
       </c>
@@ -9079,8 +9715,12 @@
       <c r="H159" s="19">
         <v>4661</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I159" s="28">
+        <f t="shared" si="2"/>
+        <v>9.3219999999999997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>159</v>
       </c>
@@ -9103,8 +9743,12 @@
       <c r="H160" s="19">
         <v>3618</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="28">
+        <f t="shared" si="2"/>
+        <v>7.2359999999999994E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>160</v>
       </c>
@@ -9127,8 +9771,12 @@
       <c r="H161" s="19">
         <v>9145</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I161" s="28">
+        <f t="shared" si="2"/>
+        <v>0.10758823529411765</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>161</v>
       </c>
@@ -9151,8 +9799,12 @@
       <c r="H162" s="19">
         <v>15848</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I162" s="28">
+        <f t="shared" si="2"/>
+        <v>0.18644705882352941</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>162</v>
       </c>
@@ -9175,8 +9827,12 @@
       <c r="H163" s="19">
         <v>16964</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I163" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1995764705882353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>163</v>
       </c>
@@ -9199,8 +9855,12 @@
       <c r="H164" s="19">
         <v>22574</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I164" s="28">
+        <f t="shared" si="2"/>
+        <v>0.2655764705882353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>164</v>
       </c>
@@ -9223,8 +9883,12 @@
       <c r="H165" s="19">
         <v>18913</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I165" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22250588235294116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>165</v>
       </c>
@@ -9247,8 +9911,12 @@
       <c r="H166" s="19">
         <v>22681</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I166" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26683529411764706</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>166</v>
       </c>
@@ -9271,8 +9939,12 @@
       <c r="H167" s="19">
         <v>17265</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="28">
+        <f t="shared" si="2"/>
+        <v>0.20311764705882354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>167</v>
       </c>
@@ -9295,8 +9967,12 @@
       <c r="H168" s="19">
         <v>19655</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I168" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23123529411764707</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>168</v>
       </c>
@@ -9319,8 +9995,12 @@
       <c r="H169" s="19">
         <v>17610</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I169" s="28">
+        <f t="shared" si="2"/>
+        <v>0.2071764705882353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>169</v>
       </c>
@@ -9343,8 +10023,12 @@
       <c r="H170" s="19">
         <v>17458</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I170" s="28">
+        <f t="shared" si="2"/>
+        <v>0.20538823529411765</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
         <v>170</v>
       </c>
@@ -9369,8 +10053,12 @@
       <c r="H171" s="19">
         <v>22616</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I171" s="28">
+        <f t="shared" si="2"/>
+        <v>0.25209840487788565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>171</v>
       </c>
@@ -9395,8 +10083,12 @@
       <c r="H172" s="19">
         <v>17156</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I172" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1912363032404053</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>172</v>
       </c>
@@ -9421,8 +10113,12 @@
       <c r="H173" s="19">
         <v>23373</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I173" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26053661200967554</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>173</v>
       </c>
@@ -9447,8 +10143,12 @@
       <c r="H174" s="19">
         <v>20272</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I174" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22597005941300399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>174</v>
       </c>
@@ -9473,8 +10173,12 @@
       <c r="H175" s="19">
         <v>24866</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I175" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27717894126695725</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>175</v>
       </c>
@@ -9499,8 +10203,12 @@
       <c r="H176" s="19">
         <v>22742</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I176" s="28">
+        <f t="shared" si="2"/>
+        <v>0.25350291491567367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>176</v>
       </c>
@@ -9525,8 +10233,12 @@
       <c r="H177" s="19">
         <v>43993</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I177" s="28">
+        <f t="shared" si="2"/>
+        <v>0.49040219378427791</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>177</v>
       </c>
@@ -9551,8 +10263,12 @@
       <c r="H178" s="19">
         <v>19703</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I178" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21962747043283432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>178</v>
       </c>
@@ -9577,8 +10293,12 @@
       <c r="H179" s="19">
         <v>16265</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="28">
+        <f t="shared" si="2"/>
+        <v>0.18130441083033297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>179</v>
       </c>
@@ -9603,8 +10323,12 @@
       <c r="H180" s="19">
         <v>18545</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I180" s="28">
+        <f t="shared" si="2"/>
+        <v>0.20671935437125882</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>180</v>
       </c>
@@ -9627,8 +10351,12 @@
       <c r="H181" s="19">
         <v>31610</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I181" s="28">
+        <f t="shared" si="2"/>
+        <v>0.35235366900380111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
         <v>181</v>
       </c>
@@ -9652,6 +10380,10 @@
       </c>
       <c r="H182" s="19">
         <v>21107</v>
+      </c>
+      <c r="I182" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23527772513961498</v>
       </c>
     </row>
   </sheetData>
@@ -49272,10 +50004,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -49294,49 +50026,49 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="27"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="25"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
@@ -49456,10 +50188,10 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
@@ -49580,10 +50312,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
         <v>0</v>
@@ -49703,10 +50435,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6">
         <v>1119</v>
@@ -49826,10 +50558,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
         <v>0</v>
@@ -49950,10 +50682,10 @@
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6">
         <v>0</v>
       </c>
@@ -50073,10 +50805,10 @@
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6">
         <v>0</v>
       </c>
@@ -50196,10 +50928,10 @@
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -50319,10 +51051,10 @@
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="6">
         <v>0</v>
       </c>
@@ -50442,10 +51174,10 @@
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="6">
         <v>0</v>
       </c>
@@ -50565,10 +51297,10 @@
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="6">
         <v>0</v>
       </c>
@@ -50687,10 +51419,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
         <v>14122</v>
@@ -50811,10 +51543,10 @@
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6">
         <v>376</v>
       </c>
@@ -52410,10 +53142,10 @@
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="6">
         <v>540</v>
       </c>
@@ -54747,10 +55479,10 @@
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="6">
         <v>13201</v>
       </c>
@@ -56100,10 +56832,10 @@
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="6">
         <v>5</v>
       </c>
@@ -57699,10 +58431,10 @@
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="24"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="6">
         <v>0</v>
       </c>
@@ -59789,10 +60521,10 @@
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="24"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6">
         <v>112913</v>
@@ -59913,10 +60645,10 @@
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="24"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="6">
         <v>8891</v>
       </c>
@@ -61758,10 +62490,10 @@
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="24"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="6">
         <v>9464</v>
       </c>
@@ -63603,10 +64335,10 @@
     <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="24"/>
+      <c r="D118" s="27"/>
       <c r="E118" s="6">
         <v>1521</v>
       </c>
@@ -65694,10 +66426,10 @@
     <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D135" s="24"/>
+      <c r="D135" s="27"/>
       <c r="E135" s="6">
         <v>6152</v>
       </c>
@@ -67047,10 +67779,10 @@
     <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D146" s="24"/>
+      <c r="D146" s="27"/>
       <c r="E146" s="6">
         <v>73389</v>
       </c>
@@ -68646,10 +69378,10 @@
     <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="23" t="s">
+      <c r="C159" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="24"/>
+      <c r="D159" s="27"/>
       <c r="E159" s="6">
         <v>13495</v>
       </c>
@@ -70983,10 +71715,10 @@
     <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D178" s="24"/>
+      <c r="D178" s="27"/>
       <c r="E178" s="6">
         <v>1</v>
       </c>
@@ -72335,10 +73067,10 @@
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C189" s="24"/>
+      <c r="C189" s="27"/>
       <c r="D189" s="5"/>
       <c r="E189" s="6">
         <v>41309</v>
@@ -72459,10 +73191,10 @@
     <row r="190" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D190" s="24"/>
+      <c r="D190" s="27"/>
       <c r="E190" s="6">
         <v>1647</v>
       </c>
@@ -74304,10 +75036,10 @@
     <row r="205" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D205" s="24"/>
+      <c r="D205" s="27"/>
       <c r="E205" s="6">
         <v>7277</v>
       </c>
@@ -76641,10 +77373,10 @@
     <row r="224" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="23" t="s">
+      <c r="C224" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D224" s="24"/>
+      <c r="D224" s="27"/>
       <c r="E224" s="6">
         <v>2521</v>
       </c>
@@ -77994,10 +78726,10 @@
     <row r="235" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
-      <c r="C235" s="23" t="s">
+      <c r="C235" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D235" s="24"/>
+      <c r="D235" s="27"/>
       <c r="E235" s="6">
         <v>29864</v>
       </c>
@@ -79592,10 +80324,10 @@
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
-      <c r="B248" s="23" t="s">
+      <c r="B248" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="24"/>
+      <c r="C248" s="27"/>
       <c r="D248" s="5"/>
       <c r="E248" s="6">
         <v>6</v>
@@ -79716,10 +80448,10 @@
     <row r="249" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
-      <c r="C249" s="23" t="s">
+      <c r="C249" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D249" s="24"/>
+      <c r="D249" s="27"/>
       <c r="E249" s="6">
         <v>0</v>
       </c>
@@ -81069,10 +81801,10 @@
     <row r="260" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
-      <c r="C260" s="23" t="s">
+      <c r="C260" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D260" s="24"/>
+      <c r="D260" s="27"/>
       <c r="E260" s="6">
         <v>6</v>
       </c>
@@ -82542,41 +83274,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:AQ1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C260:D260"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
